--- a/conf/용인시 통리반 관할구역-수정.xlsx
+++ b/conf/용인시 통리반 관할구역-수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>타입</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>보정동 909-5 대림아파트 2</t>
+  </si>
+  <si>
+    <t>죽전동 317 용인죽전휴먼빌</t>
+  </si>
+  <si>
+    <t>죽전동 1483 용인죽전휴먼빌</t>
   </si>
   <si>
     <t>change</t>
@@ -232,7 +238,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -247,7 +253,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1524,10 +1530,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="12">
+      <c r="B6" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" t="s" s="12">
         <v>15</v>
       </c>
       <c r="D6" t="s" s="9">
@@ -1539,40 +1545,57 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-      <c r="E7" t="s" s="10">
+      <c r="D7" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="F7" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s" s="10">
-        <v>20</v>
-      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>19</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="11"/>
       <c r="E8" t="s" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s" s="10">
         <v>21</v>
       </c>
       <c r="G8" t="s" s="10">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/conf/용인시 통리반 관할구역-수정.xlsx
+++ b/conf/용인시 통리반 관할구역-수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>타입</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>죽전동 1483 용인죽전휴먼빌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언남동 92-1, 123, 123-1, 126-1, 126-2 용인구성효성빌라 </t>
+  </si>
+  <si>
+    <t>언남동 123</t>
   </si>
   <si>
     <t>change</t>
@@ -132,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -245,28 +251,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -304,9 +295,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1422,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1547,7 +1535,7 @@
       <c r="A7" s="4">
         <v>10</v>
       </c>
-      <c r="B7" t="s" s="13">
+      <c r="B7" t="s" s="5">
         <v>6</v>
       </c>
       <c r="C7" t="s" s="9">
@@ -1562,40 +1550,57 @@
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
-      <c r="E8" t="s" s="10">
+      <c r="D8" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="F8" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="10">
-        <v>22</v>
-      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" t="s" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s" s="10">
         <v>23</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
